--- a/WEB/question.xlsx
+++ b/WEB/question.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Description</t>
   </si>
@@ -120,13 +120,222 @@
   </si>
   <si>
     <t>Lat Calcule</t>
+  </si>
+  <si>
+    <t>Découvrir le Parc-Nature de L'île-de-la-visitation</t>
+  </si>
+  <si>
+    <t>Découvrir le Parc-Nature du Bois-de-liesse</t>
+  </si>
+  <si>
+    <t>Découvrir le Parc-Nature du Bois-de-saraguay</t>
+  </si>
+  <si>
+    <t>Découvrir le Parc du Mont-Royal</t>
+  </si>
+  <si>
+    <t>Découvrir le Parc du Bois-de-L'île-le-Bizard</t>
+  </si>
+  <si>
+    <t>Découvrir le Parc Du Troisième-Sommet</t>
+  </si>
+  <si>
+    <t>Découvrir l’Oratoire Saint-Joseph du Mont-Royal</t>
+  </si>
+  <si>
+    <r>
+      <t>Le dôme a 60 m de hauteur interne et 39 m de diamètre et sa croix, point culminant de Montréal, atteint 300 m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>. Dans les jardins de l'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>oratoire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, on peut suivre un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>chemin de croix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> grandeur nature, inauguré en 1951, peuplé de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>sculptures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> représentant la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Passion du Christ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inauguré en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1904</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> à l'initiative du </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>frère André</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, les travaux de l'ensemble du lieu se terminèrent en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1967</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>. L'oratoire a fêté en 2004 le 100</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t> anniversaire de la chapelle initiale du frère André.</t>
+    </r>
+  </si>
+  <si>
+    <t>De quelle hauteur est le dôme de la catédrale ?</t>
+  </si>
+  <si>
+    <t>Découvrir les Tam Tam du Mont Royal</t>
+  </si>
+  <si>
+    <t>Découvrir le Vieux Montréal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +361,41 @@
       <color rgb="FF676767"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,10 +414,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -184,8 +429,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,22 +885,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -671,8 +921,11 @@
       <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -693,7 +946,154 @@
         <v>-73.569864999999993</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>-73.770832999999996</v>
+      </c>
+      <c r="C3">
+        <v>45.497698</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>2.5900061775890569E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>-73.741161000000005</v>
+      </c>
+      <c r="C4">
+        <v>45.514608000000003</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>2.5900061775890569E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>-73.658901</v>
+      </c>
+      <c r="C5">
+        <v>45.578536</v>
+      </c>
+      <c r="D5">
+        <f>D4</f>
+        <v>2.5900061775890569E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>-73.599226000000002</v>
+      </c>
+      <c r="C6">
+        <v>45.503889000000001</v>
+      </c>
+      <c r="D6">
+        <f>D5*2</f>
+        <v>5.1800123551781138E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>-73.881122000000005</v>
+      </c>
+      <c r="C7">
+        <v>45.510689999999997</v>
+      </c>
+      <c r="D7">
+        <f>D5</f>
+        <v>2.5900061775890569E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>-73.609196999999995</v>
+      </c>
+      <c r="C8">
+        <v>45.507857000000001</v>
+      </c>
+      <c r="D8">
+        <f>D7</f>
+        <v>2.5900061775890569E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>-73.616799</v>
+      </c>
+      <c r="C9">
+        <v>45.492089999999997</v>
+      </c>
+      <c r="D9">
+        <f>D8/2</f>
+        <v>1.2950030887945285E-3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>-73.585237000000006</v>
+      </c>
+      <c r="C10">
+        <v>45.514201999999997</v>
+      </c>
+      <c r="D10">
+        <f>D9</f>
+        <v>1.2950030887945285E-3</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>-73.566597999999999</v>
+      </c>
+      <c r="C11">
+        <v>45.514192999999999</v>
+      </c>
+      <c r="D11">
+        <f>D6</f>
+        <v>5.1800123551781138E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="L’Oratoire Saint-Joseph du Mont-Royal"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>